--- a/Data_preparation/datasets/final_data/COGNYTE_SOFTWARE_LTD.xlsx
+++ b/Data_preparation/datasets/final_data/COGNYTE_SOFTWARE_LTD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,69 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>MRVL</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>LPSN</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>PTC</t>
   </si>
 </sst>
 </file>
@@ -715,22 +652,22 @@
         <v>43496</v>
       </c>
       <c r="D2">
-        <v>159.5487626816853</v>
+        <v>27.98999977111816</v>
       </c>
       <c r="E2">
-        <v>173.8226776123047</v>
+        <v>28.8700008392334</v>
       </c>
       <c r="F2">
-        <v>175.6270923461549</v>
+        <v>32.45999908447266</v>
       </c>
       <c r="G2">
-        <v>155.512558863845</v>
+        <v>26.77000045776367</v>
       </c>
       <c r="H2">
-        <v>2319000000</v>
+        <v>72969110</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-300490000</v>
@@ -759,22 +696,22 @@
         <v>43861</v>
       </c>
       <c r="D3">
-        <v>23.6926327642264</v>
+        <v>27.98999977111816</v>
       </c>
       <c r="E3">
-        <v>20.75907325744629</v>
+        <v>28.8700008392334</v>
       </c>
       <c r="F3">
-        <v>25.38844422011294</v>
+        <v>32.45999908447266</v>
       </c>
       <c r="G3">
-        <v>19.00478605726309</v>
+        <v>26.77000045776367</v>
       </c>
       <c r="H3">
-        <v>862100000</v>
+        <v>72969110</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>-227060000</v>
@@ -830,22 +767,22 @@
         <v>43951</v>
       </c>
       <c r="D4">
-        <v>29.1299991607666</v>
+        <v>27.98999977111816</v>
       </c>
       <c r="E4">
-        <v>36.31999969482422</v>
+        <v>28.8700008392334</v>
       </c>
       <c r="F4">
-        <v>36.45000076293945</v>
+        <v>32.45999908447266</v>
       </c>
       <c r="G4">
-        <v>26.57999992370605</v>
+        <v>26.77000045776367</v>
       </c>
       <c r="H4">
-        <v>2085418676</v>
+        <v>72969110</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>101430000</v>
@@ -907,22 +844,22 @@
         <v>44043</v>
       </c>
       <c r="D5">
-        <v>49.18523125628565</v>
+        <v>27.98999977111816</v>
       </c>
       <c r="E5">
-        <v>44.42190551757812</v>
+        <v>28.8700008392334</v>
       </c>
       <c r="F5">
-        <v>50.24917073284447</v>
+        <v>32.45999908447266</v>
       </c>
       <c r="G5">
-        <v>41.23985008431981</v>
+        <v>26.77000045776367</v>
       </c>
       <c r="H5">
-        <v>1122466035</v>
+        <v>72969110</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>-208265000</v>
@@ -996,22 +933,22 @@
         <v>44135</v>
       </c>
       <c r="D6">
-        <v>478.8699951171875</v>
+        <v>27.98999977111816</v>
       </c>
       <c r="E6">
-        <v>490.7000122070313</v>
+        <v>28.8700008392334</v>
       </c>
       <c r="F6">
-        <v>518.72998046875</v>
+        <v>32.45999908447266</v>
       </c>
       <c r="G6">
-        <v>463.4100036621094</v>
+        <v>26.77000045776367</v>
       </c>
       <c r="H6">
-        <v>424926346</v>
+        <v>72969110</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P6">
         <v>112979000</v>
@@ -1073,22 +1010,22 @@
         <v>44227</v>
       </c>
       <c r="D7">
-        <v>239.3500061035156</v>
+        <v>27.98999977111816</v>
       </c>
       <c r="E7">
-        <v>283.4599914550781</v>
+        <v>28.8700008392334</v>
       </c>
       <c r="F7">
-        <v>354.8200073242188</v>
+        <v>32.45999908447266</v>
       </c>
       <c r="G7">
-        <v>235.8800048828125</v>
+        <v>26.77000045776367</v>
       </c>
       <c r="H7">
-        <v>278228356</v>
+        <v>72969110</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>1962000000</v>
@@ -1195,22 +1132,22 @@
         <v>44316</v>
       </c>
       <c r="D8">
-        <v>55.13000106811523</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="E8">
-        <v>54.95000076293945</v>
+        <v>25.73999977111816</v>
       </c>
       <c r="F8">
-        <v>56.47000122070312</v>
+        <v>26.54000091552734</v>
       </c>
       <c r="G8">
-        <v>47.61999893188477</v>
+        <v>22.61000061035156</v>
       </c>
       <c r="H8">
-        <v>150594095</v>
+        <v>72969110</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>1718657244</v>
@@ -1311,22 +1248,22 @@
         <v>44408</v>
       </c>
       <c r="D9">
-        <v>82.94634035907019</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="E9">
-        <v>84.26999664306641</v>
+        <v>27.47999954223633</v>
       </c>
       <c r="F9">
-        <v>86.77550126072052</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="G9">
-        <v>82.34123106917598</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="H9">
-        <v>2850792605</v>
+        <v>72969110</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>1713852597</v>
@@ -1427,22 +1364,22 @@
         <v>44500</v>
       </c>
       <c r="D10">
-        <v>80.87172081815871</v>
+        <v>19.92000007629395</v>
       </c>
       <c r="E10">
-        <v>78.30628967285156</v>
+        <v>20.3700008392334</v>
       </c>
       <c r="F10">
-        <v>84.50996293035827</v>
+        <v>24.23999977111816</v>
       </c>
       <c r="G10">
-        <v>78.21299557369527</v>
+        <v>19.70000076293945</v>
       </c>
       <c r="H10">
-        <v>123248686</v>
+        <v>72969110</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>1329724611</v>
@@ -1555,22 +1492,22 @@
         <v>44592</v>
       </c>
       <c r="D11">
-        <v>150</v>
+        <v>10.92000007629394</v>
       </c>
       <c r="E11">
-        <v>153.5630035400391</v>
+        <v>11.15999984741211</v>
       </c>
       <c r="F11">
-        <v>163.8345031738281</v>
+        <v>11.38799953460693</v>
       </c>
       <c r="G11">
-        <v>138.3329925537109</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="H11">
-        <v>10664912097</v>
+        <v>72969110</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>726016900</v>
@@ -1671,22 +1608,22 @@
         <v>44681</v>
       </c>
       <c r="D12">
-        <v>150.5399932861328</v>
+        <v>6.760000228881836</v>
       </c>
       <c r="E12">
-        <v>153.7299957275391</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="F12">
-        <v>158.7100067138672</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="G12">
-        <v>132.3200073242188</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="H12">
-        <v>272490000</v>
+        <v>72969110</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>455735925</v>
@@ -1787,22 +1724,22 @@
         <v>44773</v>
       </c>
       <c r="D13">
-        <v>3.940000057220459</v>
+        <v>4.5</v>
       </c>
       <c r="E13">
-        <v>3.509999990463257</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="F13">
-        <v>4.380000114440918</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="G13">
-        <v>3.339999914169312</v>
+        <v>4.440000057220459</v>
       </c>
       <c r="H13">
-        <v>448228270</v>
+        <v>72969110</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>304338124</v>
@@ -1903,22 +1840,22 @@
         <v>44865</v>
       </c>
       <c r="D14">
-        <v>83.23999786376953</v>
+        <v>2.759999990463257</v>
       </c>
       <c r="E14">
-        <v>75.77999877929688</v>
+        <v>2.950000047683716</v>
       </c>
       <c r="F14">
-        <v>86.87999725341797</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="G14">
-        <v>66.44699859619141</v>
+        <v>2.575000047683716</v>
       </c>
       <c r="H14">
-        <v>323270704</v>
+        <v>72969110</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>184580253</v>
@@ -2135,22 +2072,22 @@
         <v>45046</v>
       </c>
       <c r="D16">
-        <v>80.47000122070312</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="E16">
-        <v>81.30999755859375</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="F16">
-        <v>87.41999816894531</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="G16">
-        <v>75.16000366210938</v>
+        <v>4.025000095367432</v>
       </c>
       <c r="H16">
-        <v>136895573</v>
+        <v>72969110</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>286385220</v>
@@ -2251,22 +2188,22 @@
         <v>45138</v>
       </c>
       <c r="D17">
-        <v>572.4199829101562</v>
+        <v>5.440000057220459</v>
       </c>
       <c r="E17">
-        <v>546.52001953125</v>
+        <v>4.789999961853027</v>
       </c>
       <c r="F17">
-        <v>579.1199951171875</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="G17">
-        <v>477.510009765625</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="H17">
-        <v>52693110</v>
+        <v>72969110</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>374043235</v>
@@ -2367,22 +2304,22 @@
         <v>45230</v>
       </c>
       <c r="D18">
-        <v>204.0399932861328</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="E18">
-        <v>240.0800018310547</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="F18">
-        <v>252.75</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="G18">
-        <v>197.8500061035156</v>
+        <v>4.010000228881836</v>
       </c>
       <c r="H18">
-        <v>3325150886</v>
+        <v>72969110</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>293928371</v>
@@ -2483,22 +2420,22 @@
         <v>45322</v>
       </c>
       <c r="D19">
-        <v>354.4882078035527</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="E19">
-        <v>364.9865112304687</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="F19">
-        <v>370.4596485847449</v>
+        <v>7.78000020980835</v>
       </c>
       <c r="G19">
-        <v>349.5896494174895</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="H19">
-        <v>622000000</v>
+        <v>72969110</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>498246568</v>
@@ -2599,22 +2536,22 @@
         <v>45412</v>
       </c>
       <c r="D20">
-        <v>32.91999816894531</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="E20">
-        <v>29.47999954223633</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="F20">
-        <v>34.43000030517578</v>
+        <v>7.869999885559082</v>
       </c>
       <c r="G20">
-        <v>29.14999961853028</v>
+        <v>6.769999980926514</v>
       </c>
       <c r="H20">
-        <v>48253392</v>
+        <v>72969110</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>484196369</v>
@@ -2715,22 +2652,22 @@
         <v>45504</v>
       </c>
       <c r="D21">
-        <v>65.3347813084503</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="E21">
-        <v>75.98967742919922</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="F21">
-        <v>78.74061759069839</v>
+        <v>7.690000057220459</v>
       </c>
       <c r="G21">
-        <v>53.01535875336031</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="H21">
-        <v>862100000</v>
+        <v>72969110</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>543756070</v>
@@ -2831,22 +2768,22 @@
         <v>45596</v>
       </c>
       <c r="D22">
-        <v>171.1399993896484</v>
+        <v>6.5</v>
       </c>
       <c r="E22">
-        <v>336.75</v>
+        <v>8.119999885559082</v>
       </c>
       <c r="F22">
-        <v>344.7699890136719</v>
+        <v>8.239999771118164</v>
       </c>
       <c r="G22">
-        <v>158.3300018310547</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="H22">
-        <v>307636373</v>
+        <v>72969110</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>466598349</v>
@@ -2947,22 +2884,22 @@
         <v>45688</v>
       </c>
       <c r="D23">
-        <v>29.5</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="E23">
-        <v>23.45000076293945</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="F23">
-        <v>35.97999954223633</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="G23">
-        <v>22.81999969482422</v>
+        <v>8.630000114440918</v>
       </c>
       <c r="H23">
-        <v>134349704</v>
+        <v>72969110</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>670320168</v>
@@ -3063,22 +3000,22 @@
         <v>45777</v>
       </c>
       <c r="D24">
-        <v>160.2100067138672</v>
+        <v>9.909999847412109</v>
       </c>
       <c r="E24">
-        <v>168.3200073242188</v>
+        <v>10.90499973297119</v>
       </c>
       <c r="F24">
-        <v>174.2599945068359</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="G24">
-        <v>151.6699981689453</v>
+        <v>9.579999923706056</v>
       </c>
       <c r="H24">
-        <v>119792704</v>
+        <v>72969110</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>706160580</v>
@@ -3179,22 +3116,22 @@
         <v>45869</v>
       </c>
       <c r="D25">
-        <v>77.06999969482422</v>
+        <v>9.100000381469728</v>
       </c>
       <c r="E25">
-        <v>62.86999893188477</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="F25">
-        <v>80.05999755859375</v>
+        <v>9.350000381469728</v>
       </c>
       <c r="G25">
-        <v>62.61999893188477</v>
+        <v>8.340000152587891</v>
       </c>
       <c r="H25">
-        <v>862100000</v>
+        <v>72969110</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>674855169</v>
